--- a/dataanalysis/data/predictions/1000/07250952_0954.xlsx
+++ b/dataanalysis/data/predictions/1000/07250952_0954.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="133">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-25</t>
   </si>
   <si>
@@ -410,12 +413,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -773,13 +770,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,19 +858,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>3.82</v>
@@ -891,7 +891,7 @@
         <v>22661.33</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K2">
         <v>9</v>
@@ -911,8 +911,23 @@
       <c r="P2">
         <v>0.03</v>
       </c>
+      <c r="Q2">
+        <v>0.8</v>
+      </c>
+      <c r="R2">
+        <v>5.27</v>
+      </c>
+      <c r="S2">
+        <v>2.13</v>
+      </c>
       <c r="V2" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -920,22 +935,25 @@
       <c r="Z2">
         <v>0.1614769548177719</v>
       </c>
-      <c r="AA2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-1.54</v>
@@ -953,7 +971,7 @@
         <v>15720.4</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3">
         <v>13</v>
@@ -973,8 +991,23 @@
       <c r="P3">
         <v>-0.13</v>
       </c>
+      <c r="Q3">
+        <v>0.05</v>
+      </c>
+      <c r="R3">
+        <v>22.18</v>
+      </c>
+      <c r="S3">
+        <v>-1.16</v>
+      </c>
       <c r="V3" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -982,22 +1015,25 @@
       <c r="Z3">
         <v>8.907332420349121</v>
       </c>
-      <c r="AA3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1.29</v>
@@ -1015,7 +1051,7 @@
         <v>41998.62</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1035,8 +1071,23 @@
       <c r="P4">
         <v>-0.29</v>
       </c>
+      <c r="Q4">
+        <v>8.92</v>
+      </c>
+      <c r="R4">
+        <v>7.02</v>
+      </c>
+      <c r="S4">
+        <v>11.61</v>
+      </c>
       <c r="V4" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1044,22 +1095,25 @@
       <c r="Z4">
         <v>1.909692764282227</v>
       </c>
-      <c r="AA4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300046</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0.31</v>
@@ -1077,7 +1131,7 @@
         <v>44785.87</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1097,8 +1151,23 @@
       <c r="P5">
         <v>-0.36</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>44.11</v>
+      </c>
+      <c r="S5">
+        <v>4.53</v>
+      </c>
       <c r="V5" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1106,22 +1175,25 @@
       <c r="Z5">
         <v>3.414361953735352</v>
       </c>
-      <c r="AA5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300066</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>-4.37</v>
@@ -1139,7 +1211,7 @@
         <v>27951.89</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K6">
         <v>11</v>
@@ -1159,8 +1231,23 @@
       <c r="P6">
         <v>-0.37</v>
       </c>
+      <c r="Q6">
+        <v>2.84</v>
+      </c>
+      <c r="R6">
+        <v>6.62</v>
+      </c>
+      <c r="S6">
+        <v>4.42</v>
+      </c>
       <c r="V6" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1168,22 +1255,25 @@
       <c r="Z6">
         <v>5.143381595611572</v>
       </c>
-      <c r="AA6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300086</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>6.61</v>
@@ -1201,7 +1291,7 @@
         <v>93613.45</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1221,8 +1311,23 @@
       <c r="P7">
         <v>-3.62</v>
       </c>
+      <c r="Q7">
+        <v>4.34</v>
+      </c>
+      <c r="R7">
+        <v>8.35</v>
+      </c>
+      <c r="S7">
+        <v>3.6</v>
+      </c>
       <c r="V7" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1230,22 +1335,25 @@
       <c r="Z7">
         <v>8.144599914550781</v>
       </c>
-      <c r="AA7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300095</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-4.01</v>
@@ -1263,7 +1371,7 @@
         <v>24163.84</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1283,8 +1391,23 @@
       <c r="P8">
         <v>-0.86</v>
       </c>
+      <c r="Q8">
+        <v>1.1</v>
+      </c>
+      <c r="R8">
+        <v>11.17</v>
+      </c>
+      <c r="S8">
+        <v>1.36</v>
+      </c>
       <c r="V8" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1292,22 +1415,25 @@
       <c r="Z8">
         <v>1.852603554725647</v>
       </c>
-      <c r="AA8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300127</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0.06</v>
@@ -1325,7 +1451,7 @@
         <v>29594.28</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1345,8 +1471,23 @@
       <c r="P9">
         <v>-0.1</v>
       </c>
+      <c r="Q9">
+        <v>-0.32</v>
+      </c>
+      <c r="R9">
+        <v>31.55</v>
+      </c>
+      <c r="S9">
+        <v>2.2</v>
+      </c>
       <c r="V9" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1354,22 +1495,25 @@
       <c r="Z9">
         <v>5.220932483673096</v>
       </c>
-      <c r="AA9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300158</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>10.23</v>
@@ -1387,7 +1531,7 @@
         <v>84963.64999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1407,8 +1551,23 @@
       <c r="P10">
         <v>0.78</v>
       </c>
+      <c r="Q10">
+        <v>2.56</v>
+      </c>
+      <c r="R10">
+        <v>7.75</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
       <c r="V10" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1416,22 +1575,25 @@
       <c r="Z10">
         <v>-1.886581182479858</v>
       </c>
-      <c r="AA10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300189</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>-7.86</v>
@@ -1449,7 +1611,7 @@
         <v>75625.14999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1469,8 +1631,23 @@
       <c r="P11">
         <v>-4.15</v>
       </c>
+      <c r="Q11">
+        <v>-2.02</v>
+      </c>
+      <c r="R11">
+        <v>4.98</v>
+      </c>
+      <c r="S11">
+        <v>-1.19</v>
+      </c>
       <c r="V11" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1478,22 +1655,25 @@
       <c r="Z11">
         <v>0.7820138931274414</v>
       </c>
-      <c r="AA11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300199</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>1.61</v>
@@ -1511,7 +1691,7 @@
         <v>34237.55</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K12">
         <v>18</v>
@@ -1531,8 +1711,23 @@
       <c r="P12">
         <v>-0.17</v>
       </c>
+      <c r="Q12">
+        <v>2.3</v>
+      </c>
+      <c r="R12">
+        <v>19.3</v>
+      </c>
+      <c r="S12">
+        <v>1.63</v>
+      </c>
       <c r="V12" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1540,22 +1735,25 @@
       <c r="Z12">
         <v>2.415643930435181</v>
       </c>
-      <c r="AA12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300224</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>2.11</v>
@@ -1573,7 +1771,7 @@
         <v>73846.5</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1593,8 +1791,23 @@
       <c r="P13">
         <v>-0.12</v>
       </c>
+      <c r="Q13">
+        <v>-0.99</v>
+      </c>
+      <c r="R13">
+        <v>17.2</v>
+      </c>
+      <c r="S13">
+        <v>4.37</v>
+      </c>
       <c r="V13" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -1602,22 +1815,25 @@
       <c r="Z13">
         <v>7.804986476898193</v>
       </c>
-      <c r="AA13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300254</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>4.45</v>
@@ -1635,7 +1851,7 @@
         <v>25491.94</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1655,8 +1871,23 @@
       <c r="P14">
         <v>0.02</v>
       </c>
+      <c r="Q14">
+        <v>4.48</v>
+      </c>
+      <c r="R14">
+        <v>12.3</v>
+      </c>
+      <c r="S14">
+        <v>0.74</v>
+      </c>
       <c r="V14" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1664,22 +1895,25 @@
       <c r="Z14">
         <v>-0.6779502630233765</v>
       </c>
-      <c r="AA14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300283</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>-6.8</v>
@@ -1697,7 +1931,7 @@
         <v>22051</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -1717,8 +1951,23 @@
       <c r="P15">
         <v>-1.19</v>
       </c>
+      <c r="Q15">
+        <v>5.05</v>
+      </c>
+      <c r="R15">
+        <v>7.72</v>
+      </c>
+      <c r="S15">
+        <v>4.32</v>
+      </c>
       <c r="V15" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1726,22 +1975,25 @@
       <c r="Z15">
         <v>2.384844541549683</v>
       </c>
-      <c r="AA15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300363</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>11.32</v>
@@ -1759,7 +2011,7 @@
         <v>65920.92999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1779,8 +2031,23 @@
       <c r="P16">
         <v>0.14</v>
       </c>
+      <c r="Q16">
+        <v>4.99</v>
+      </c>
+      <c r="R16">
+        <v>24.98</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
       <c r="V16" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1788,22 +2055,25 @@
       <c r="Z16">
         <v>0.7594543695449829</v>
       </c>
-      <c r="AA16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300378</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>3.81</v>
@@ -1821,7 +2091,7 @@
         <v>59449.32</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1841,8 +2111,23 @@
       <c r="P17">
         <v>0.19</v>
       </c>
+      <c r="Q17">
+        <v>-0.65</v>
+      </c>
+      <c r="R17">
+        <v>50.22</v>
+      </c>
+      <c r="S17">
+        <v>2.28</v>
+      </c>
       <c r="V17" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1850,22 +2135,25 @@
       <c r="Z17">
         <v>2.34437108039856</v>
       </c>
-      <c r="AA17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300414</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-5.54</v>
@@ -1883,7 +2171,7 @@
         <v>33797.05</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -1903,8 +2191,23 @@
       <c r="P18">
         <v>-0.82</v>
       </c>
+      <c r="Q18">
+        <v>2.86</v>
+      </c>
+      <c r="R18">
+        <v>14.5</v>
+      </c>
+      <c r="S18">
+        <v>1.26</v>
+      </c>
       <c r="V18" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1912,22 +2215,25 @@
       <c r="Z18">
         <v>3.180992126464844</v>
       </c>
-      <c r="AA18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300436</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>4.6</v>
@@ -1945,7 +2251,7 @@
         <v>48854.88</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19">
         <v>17</v>
@@ -1965,8 +2271,23 @@
       <c r="P19">
         <v>0.26</v>
       </c>
+      <c r="Q19">
+        <v>13.68</v>
+      </c>
+      <c r="R19">
+        <v>88.88</v>
+      </c>
+      <c r="S19">
+        <v>16.08</v>
+      </c>
       <c r="V19" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -1974,22 +2295,25 @@
       <c r="Z19">
         <v>0.7520126104354858</v>
       </c>
-      <c r="AA19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300485</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>-0.39</v>
@@ -2007,7 +2331,7 @@
         <v>11751.85</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2027,8 +2351,23 @@
       <c r="P20">
         <v>-0.18</v>
       </c>
+      <c r="Q20">
+        <v>0.34</v>
+      </c>
+      <c r="R20">
+        <v>15.24</v>
+      </c>
+      <c r="S20">
+        <v>0.2</v>
+      </c>
       <c r="V20" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -2036,22 +2375,25 @@
       <c r="Z20">
         <v>4.232458114624023</v>
       </c>
-      <c r="AA20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300490</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>-5.97</v>
@@ -2069,7 +2411,7 @@
         <v>30763.99</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2089,8 +2431,23 @@
       <c r="P21">
         <v>-1.58</v>
       </c>
+      <c r="Q21">
+        <v>-1.69</v>
+      </c>
+      <c r="R21">
+        <v>10.04</v>
+      </c>
+      <c r="S21">
+        <v>-0.4</v>
+      </c>
       <c r="V21" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2098,22 +2455,25 @@
       <c r="Z21">
         <v>1.937044501304626</v>
       </c>
-      <c r="AA21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300527</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>-1.39</v>
@@ -2131,7 +2491,7 @@
         <v>11708.49</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22">
         <v>19</v>
@@ -2151,8 +2511,23 @@
       <c r="P22">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="Q22">
+        <v>1.24</v>
+      </c>
+      <c r="R22">
+        <v>11.61</v>
+      </c>
+      <c r="S22">
+        <v>2.38</v>
+      </c>
       <c r="V22" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2160,22 +2535,25 @@
       <c r="Z22">
         <v>5.427649974822998</v>
       </c>
-      <c r="AA22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300528</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>1.82</v>
@@ -2193,7 +2571,7 @@
         <v>45562.28</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2213,8 +2591,23 @@
       <c r="P23">
         <v>-0.22</v>
       </c>
+      <c r="Q23">
+        <v>20</v>
+      </c>
+      <c r="R23">
+        <v>17.58</v>
+      </c>
+      <c r="S23">
+        <v>20.99</v>
+      </c>
       <c r="V23" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2222,22 +2615,25 @@
       <c r="Z23">
         <v>1.755124926567078</v>
       </c>
-      <c r="AA23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300533</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>-0.34</v>
@@ -2255,7 +2651,7 @@
         <v>13767.8</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K24">
         <v>23</v>
@@ -2275,8 +2671,23 @@
       <c r="P24">
         <v>-0.37</v>
       </c>
+      <c r="Q24">
+        <v>1.13</v>
+      </c>
+      <c r="R24">
+        <v>36.24</v>
+      </c>
+      <c r="S24">
+        <v>2.08</v>
+      </c>
       <c r="V24" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2284,22 +2695,25 @@
       <c r="Z24">
         <v>3.772608041763306</v>
       </c>
-      <c r="AA24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300539</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>9.06</v>
@@ -2317,7 +2731,7 @@
         <v>47580.51</v>
       </c>
       <c r="J25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2337,8 +2751,23 @@
       <c r="P25">
         <v>0.01</v>
       </c>
+      <c r="Q25">
+        <v>4.47</v>
+      </c>
+      <c r="R25">
+        <v>28</v>
+      </c>
+      <c r="S25">
+        <v>29.93</v>
+      </c>
       <c r="V25" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2346,22 +2775,25 @@
       <c r="Z25">
         <v>0.3530662655830383</v>
       </c>
-      <c r="AA25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300548</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>-0.41</v>
@@ -2379,7 +2811,7 @@
         <v>39449.82</v>
       </c>
       <c r="J26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K26">
         <v>9</v>
@@ -2399,8 +2831,23 @@
       <c r="P26">
         <v>-0.04</v>
       </c>
+      <c r="Q26">
+        <v>1.74</v>
+      </c>
+      <c r="R26">
+        <v>85.36</v>
+      </c>
+      <c r="S26">
+        <v>2.55</v>
+      </c>
       <c r="V26" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2408,22 +2855,25 @@
       <c r="Z26">
         <v>7.623805046081543</v>
       </c>
-      <c r="AA26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300581</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>-2.12</v>
@@ -2441,7 +2891,7 @@
         <v>25294.77</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -2461,8 +2911,23 @@
       <c r="P27">
         <v>-0.27</v>
       </c>
+      <c r="Q27">
+        <v>4.06</v>
+      </c>
+      <c r="R27">
+        <v>21.7</v>
+      </c>
+      <c r="S27">
+        <v>4.58</v>
+      </c>
       <c r="V27" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2470,22 +2935,25 @@
       <c r="Z27">
         <v>3.161924123764038</v>
       </c>
-      <c r="AA27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300617</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>-0.38</v>
@@ -2503,7 +2971,7 @@
         <v>12943.45</v>
       </c>
       <c r="J28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -2523,8 +2991,23 @@
       <c r="P28">
         <v>-0.28</v>
       </c>
+      <c r="Q28">
+        <v>-0.88</v>
+      </c>
+      <c r="R28">
+        <v>36.66</v>
+      </c>
+      <c r="S28">
+        <v>-1.4</v>
+      </c>
       <c r="V28" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2532,22 +3015,25 @@
       <c r="Z28">
         <v>3.292175054550171</v>
       </c>
-      <c r="AA28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300631</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-5.94</v>
@@ -2565,7 +3051,7 @@
         <v>30618.96</v>
       </c>
       <c r="J29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K29">
         <v>10</v>
@@ -2585,8 +3071,23 @@
       <c r="P29">
         <v>-0.02</v>
       </c>
+      <c r="Q29">
+        <v>0.48</v>
+      </c>
+      <c r="R29">
+        <v>33.4</v>
+      </c>
+      <c r="S29">
+        <v>0.91</v>
+      </c>
       <c r="V29" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>1</v>
@@ -2594,22 +3095,25 @@
       <c r="Z29">
         <v>3.918211936950684</v>
       </c>
-      <c r="AA29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300644</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>-2.14</v>
@@ -2627,7 +3131,7 @@
         <v>9754.26</v>
       </c>
       <c r="J30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K30">
         <v>7</v>
@@ -2647,8 +3151,23 @@
       <c r="P30">
         <v>-0.44</v>
       </c>
+      <c r="Q30">
+        <v>5.57</v>
+      </c>
+      <c r="R30">
+        <v>34.27</v>
+      </c>
+      <c r="S30">
+        <v>8.48</v>
+      </c>
       <c r="V30" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2656,22 +3175,25 @@
       <c r="Z30">
         <v>3.872758150100708</v>
       </c>
-      <c r="AA30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300683</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>6.57</v>
@@ -2689,7 +3211,7 @@
         <v>32783.12</v>
       </c>
       <c r="J31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -2709,8 +3231,23 @@
       <c r="P31">
         <v>0.49</v>
       </c>
+      <c r="Q31">
+        <v>-5.45</v>
+      </c>
+      <c r="R31">
+        <v>45.5</v>
+      </c>
+      <c r="S31">
+        <v>0.22</v>
+      </c>
       <c r="V31" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2718,22 +3255,25 @@
       <c r="Z31">
         <v>3.624214887619019</v>
       </c>
-      <c r="AA31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300706</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>19.99</v>
@@ -2751,7 +3291,7 @@
         <v>66087.02</v>
       </c>
       <c r="J32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2771,8 +3311,23 @@
       <c r="P32">
         <v>3.82</v>
       </c>
+      <c r="Q32">
+        <v>9.18</v>
+      </c>
+      <c r="R32">
+        <v>37.68</v>
+      </c>
+      <c r="S32">
+        <v>12.71</v>
+      </c>
       <c r="V32" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -2780,22 +3335,25 @@
       <c r="Z32">
         <v>6.205785751342773</v>
       </c>
-      <c r="AA32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300722</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>-1.66</v>
@@ -2813,7 +3371,7 @@
         <v>15784.75</v>
       </c>
       <c r="J33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -2833,8 +3391,23 @@
       <c r="P33">
         <v>-0.23</v>
       </c>
+      <c r="Q33">
+        <v>1.22</v>
+      </c>
+      <c r="R33">
+        <v>38.67</v>
+      </c>
+      <c r="S33">
+        <v>1.87</v>
+      </c>
       <c r="V33" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2842,22 +3415,25 @@
       <c r="Z33">
         <v>5.29334545135498</v>
       </c>
-      <c r="AA33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300748</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-1.96</v>
@@ -2875,7 +3451,7 @@
         <v>95412.28</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K34">
         <v>11</v>
@@ -2895,8 +3471,23 @@
       <c r="P34">
         <v>-0.23</v>
       </c>
+      <c r="Q34">
+        <v>-0.52</v>
+      </c>
+      <c r="R34">
+        <v>28.93</v>
+      </c>
+      <c r="S34">
+        <v>1.4</v>
+      </c>
       <c r="V34" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2904,22 +3495,25 @@
       <c r="Z34">
         <v>1.910143494606018</v>
       </c>
-      <c r="AA34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300803</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>-0.91</v>
@@ -2937,7 +3531,7 @@
         <v>136208.35</v>
       </c>
       <c r="J35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K35">
         <v>21</v>
@@ -2957,8 +3551,23 @@
       <c r="P35">
         <v>-0.04</v>
       </c>
+      <c r="Q35">
+        <v>1.54</v>
+      </c>
+      <c r="R35">
+        <v>95.84</v>
+      </c>
+      <c r="S35">
+        <v>1.91</v>
+      </c>
       <c r="V35" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>1</v>
@@ -2966,22 +3575,25 @@
       <c r="Z35">
         <v>8.127718925476074</v>
       </c>
-      <c r="AA35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>300835</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-5.93</v>
@@ -2999,7 +3611,7 @@
         <v>40192.26</v>
       </c>
       <c r="J36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -3019,8 +3631,23 @@
       <c r="P36">
         <v>-0.63</v>
       </c>
+      <c r="Q36">
+        <v>4.97</v>
+      </c>
+      <c r="R36">
+        <v>61.16</v>
+      </c>
+      <c r="S36">
+        <v>6.59</v>
+      </c>
       <c r="V36" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3028,22 +3655,25 @@
       <c r="Z36">
         <v>5.810867309570312</v>
       </c>
-      <c r="AA36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>300865</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>-4.62</v>
@@ -3061,7 +3691,7 @@
         <v>14843.55</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3081,8 +3711,23 @@
       <c r="P37">
         <v>-0.47</v>
       </c>
+      <c r="Q37">
+        <v>-1.14</v>
+      </c>
+      <c r="R37">
+        <v>37.2</v>
+      </c>
+      <c r="S37">
+        <v>-3.65</v>
+      </c>
       <c r="V37" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -3090,22 +3735,25 @@
       <c r="Z37">
         <v>8.065581321716309</v>
       </c>
-      <c r="AA37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>300872</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-1.06</v>
@@ -3123,7 +3771,7 @@
         <v>49650.28</v>
       </c>
       <c r="J38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -3143,8 +3791,23 @@
       <c r="P38">
         <v>-0.41</v>
       </c>
+      <c r="Q38">
+        <v>6.03</v>
+      </c>
+      <c r="R38">
+        <v>27.48</v>
+      </c>
+      <c r="S38">
+        <v>9.09</v>
+      </c>
       <c r="V38" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3152,22 +3815,25 @@
       <c r="Z38">
         <v>4.251416683197021</v>
       </c>
-      <c r="AA38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>300881</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>-3.06</v>
@@ -3185,7 +3851,7 @@
         <v>11355.95</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -3205,8 +3871,23 @@
       <c r="P39">
         <v>-0.34</v>
       </c>
+      <c r="Q39">
+        <v>-0.62</v>
+      </c>
+      <c r="R39">
+        <v>39.06</v>
+      </c>
+      <c r="S39">
+        <v>-0.59</v>
+      </c>
       <c r="V39" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3214,22 +3895,25 @@
       <c r="Z39">
         <v>10.48736667633057</v>
       </c>
-      <c r="AA39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>300885</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-5.86</v>
@@ -3247,7 +3931,7 @@
         <v>20953.94</v>
       </c>
       <c r="J40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -3267,8 +3951,23 @@
       <c r="P40">
         <v>-0.34</v>
       </c>
+      <c r="Q40">
+        <v>-2.51</v>
+      </c>
+      <c r="R40">
+        <v>19</v>
+      </c>
+      <c r="S40">
+        <v>8.51</v>
+      </c>
       <c r="V40" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3276,22 +3975,25 @@
       <c r="Z40">
         <v>1.950606226921082</v>
       </c>
-      <c r="AA40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>301038</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>-7.4</v>
@@ -3309,7 +4011,7 @@
         <v>39549.13</v>
       </c>
       <c r="J41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -3329,8 +4031,23 @@
       <c r="P41">
         <v>-0.05</v>
       </c>
+      <c r="Q41">
+        <v>-4.27</v>
+      </c>
+      <c r="R41">
+        <v>26.36</v>
+      </c>
+      <c r="S41">
+        <v>-14.72</v>
+      </c>
       <c r="V41" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3338,22 +4055,25 @@
       <c r="Z41">
         <v>1.971009016036987</v>
       </c>
-      <c r="AA41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301141</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>-2.76</v>
@@ -3371,7 +4091,7 @@
         <v>23979.25</v>
       </c>
       <c r="J42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K42">
         <v>21</v>
@@ -3391,8 +4111,23 @@
       <c r="P42">
         <v>-0.51</v>
       </c>
+      <c r="Q42">
+        <v>-0.12</v>
+      </c>
+      <c r="R42">
+        <v>68.95</v>
+      </c>
+      <c r="S42">
+        <v>0.51</v>
+      </c>
       <c r="V42" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3400,22 +4135,25 @@
       <c r="Z42">
         <v>5.050069332122803</v>
       </c>
-      <c r="AA42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301151</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>-7.52</v>
@@ -3433,7 +4171,7 @@
         <v>18101.15</v>
       </c>
       <c r="J43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -3453,8 +4191,23 @@
       <c r="P43">
         <v>-1.18</v>
       </c>
+      <c r="Q43">
+        <v>3.26</v>
+      </c>
+      <c r="R43">
+        <v>22.98</v>
+      </c>
+      <c r="S43">
+        <v>1.55</v>
+      </c>
       <c r="V43" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3462,22 +4215,25 @@
       <c r="Z43">
         <v>2.185037136077881</v>
       </c>
-      <c r="AA43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301165</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>0.6899999999999999</v>
@@ -3495,7 +4251,7 @@
         <v>11149.64</v>
       </c>
       <c r="J44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K44">
         <v>8</v>
@@ -3515,8 +4271,23 @@
       <c r="P44">
         <v>0</v>
       </c>
+      <c r="Q44">
+        <v>1.22</v>
+      </c>
+      <c r="R44">
+        <v>61.96</v>
+      </c>
+      <c r="S44">
+        <v>1.67</v>
+      </c>
       <c r="V44" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3524,22 +4295,25 @@
       <c r="Z44">
         <v>2.140319585800171</v>
       </c>
-      <c r="AA44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301183</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-0.96</v>
@@ -3557,7 +4331,7 @@
         <v>10024.49</v>
       </c>
       <c r="J45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K45">
         <v>8</v>
@@ -3577,8 +4351,23 @@
       <c r="P45">
         <v>0.06</v>
       </c>
+      <c r="Q45">
+        <v>0.47</v>
+      </c>
+      <c r="R45">
+        <v>66.92</v>
+      </c>
+      <c r="S45">
+        <v>1.84</v>
+      </c>
       <c r="V45" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3586,22 +4375,25 @@
       <c r="Z45">
         <v>3.791358232498169</v>
       </c>
-      <c r="AA45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301200</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>-3.29</v>
@@ -3619,7 +4411,7 @@
         <v>20555.69</v>
       </c>
       <c r="J46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -3639,8 +4431,23 @@
       <c r="P46">
         <v>0.25</v>
       </c>
+      <c r="Q46">
+        <v>19.99</v>
+      </c>
+      <c r="R46">
+        <v>69.14</v>
+      </c>
+      <c r="S46">
+        <v>19.85</v>
+      </c>
       <c r="V46" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3648,22 +4455,25 @@
       <c r="Z46">
         <v>5.448296546936035</v>
       </c>
-      <c r="AA46" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301201</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>0.26</v>
@@ -3681,7 +4491,7 @@
         <v>7547</v>
       </c>
       <c r="J47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -3701,8 +4511,23 @@
       <c r="P47">
         <v>0.12</v>
       </c>
+      <c r="Q47">
+        <v>-0.3</v>
+      </c>
+      <c r="R47">
+        <v>27.49</v>
+      </c>
+      <c r="S47">
+        <v>0.55</v>
+      </c>
       <c r="V47" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3710,22 +4535,25 @@
       <c r="Z47">
         <v>3.641729831695557</v>
       </c>
-      <c r="AA47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301217</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>-11.13</v>
@@ -3743,7 +4571,7 @@
         <v>63698.24</v>
       </c>
       <c r="J48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K48">
         <v>15</v>
@@ -3763,8 +4591,23 @@
       <c r="P48">
         <v>-0.87</v>
       </c>
+      <c r="Q48">
+        <v>20</v>
+      </c>
+      <c r="R48">
+        <v>25.08</v>
+      </c>
+      <c r="S48">
+        <v>20.4</v>
+      </c>
       <c r="V48" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3772,22 +4615,25 @@
       <c r="Z48">
         <v>3.747596263885498</v>
       </c>
-      <c r="AA48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301345</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>12.99</v>
@@ -3805,7 +4651,7 @@
         <v>43604.12</v>
       </c>
       <c r="J49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -3825,8 +4671,23 @@
       <c r="P49">
         <v>0.57</v>
       </c>
+      <c r="Q49">
+        <v>-1.48</v>
+      </c>
+      <c r="R49">
+        <v>161.39</v>
+      </c>
+      <c r="S49">
+        <v>-0.11</v>
+      </c>
       <c r="V49" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3834,22 +4695,25 @@
       <c r="Z49">
         <v>1.716809391975403</v>
       </c>
-      <c r="AA49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301377</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>1.52</v>
@@ -3867,7 +4731,7 @@
         <v>10048.27</v>
       </c>
       <c r="J50" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K50">
         <v>9</v>
@@ -3887,8 +4751,23 @@
       <c r="P50">
         <v>-0.09</v>
       </c>
+      <c r="Q50">
+        <v>12.61</v>
+      </c>
+      <c r="R50">
+        <v>57.74</v>
+      </c>
+      <c r="S50">
+        <v>21.79</v>
+      </c>
       <c r="V50" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3896,22 +4775,25 @@
       <c r="Z50">
         <v>4.08406925201416</v>
       </c>
-      <c r="AA50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301389</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>-2.69</v>
@@ -3929,7 +4811,7 @@
         <v>13499.3</v>
       </c>
       <c r="J51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K51">
         <v>14</v>
@@ -3949,8 +4831,23 @@
       <c r="P51">
         <v>-0.66</v>
       </c>
+      <c r="Q51">
+        <v>6.71</v>
+      </c>
+      <c r="R51">
+        <v>36.44</v>
+      </c>
+      <c r="S51">
+        <v>12.12</v>
+      </c>
       <c r="V51" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -3958,22 +4855,25 @@
       <c r="Z51">
         <v>5.238429546356201</v>
       </c>
-      <c r="AA51" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>301421</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>-1.95</v>
@@ -3991,7 +4891,7 @@
         <v>15653.57</v>
       </c>
       <c r="J52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K52">
         <v>25</v>
@@ -4011,8 +4911,23 @@
       <c r="P52">
         <v>-0.26</v>
       </c>
+      <c r="Q52">
+        <v>-2.71</v>
+      </c>
+      <c r="R52">
+        <v>86</v>
+      </c>
+      <c r="S52">
+        <v>10.53</v>
+      </c>
       <c r="V52" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4020,22 +4935,25 @@
       <c r="Z52">
         <v>5.382277011871338</v>
       </c>
-      <c r="AA52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>301511</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>-3.35</v>
@@ -4053,7 +4971,7 @@
         <v>24915.85</v>
       </c>
       <c r="J53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K53">
         <v>24</v>
@@ -4073,8 +4991,23 @@
       <c r="P53">
         <v>-0.17</v>
       </c>
+      <c r="Q53">
+        <v>12.14</v>
+      </c>
+      <c r="R53">
+        <v>31.4</v>
+      </c>
+      <c r="S53">
+        <v>13.23</v>
+      </c>
       <c r="V53" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4082,22 +5015,25 @@
       <c r="Z53">
         <v>6.008118152618408</v>
       </c>
-      <c r="AA53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>301526</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>-1.43</v>
@@ -4115,7 +5051,7 @@
         <v>10387.43</v>
       </c>
       <c r="J54" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K54">
         <v>14</v>
@@ -4135,8 +5071,23 @@
       <c r="P54">
         <v>-0.24</v>
       </c>
+      <c r="Q54">
+        <v>2.7</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>3.52</v>
+      </c>
       <c r="V54" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4144,22 +5095,25 @@
       <c r="Z54">
         <v>8.01633358001709</v>
       </c>
-      <c r="AA54" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>688062</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>-0.78</v>
@@ -4177,7 +5131,7 @@
         <v>11680.94</v>
       </c>
       <c r="J55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K55">
         <v>17</v>
@@ -4197,8 +5151,23 @@
       <c r="P55">
         <v>-0.27</v>
       </c>
+      <c r="Q55">
+        <v>3.36</v>
+      </c>
+      <c r="R55">
+        <v>33.97</v>
+      </c>
+      <c r="S55">
+        <v>3</v>
+      </c>
       <c r="V55" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -4206,22 +5175,25 @@
       <c r="Z55">
         <v>5.292460441589355</v>
       </c>
-      <c r="AA55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>688202</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>4.82</v>
@@ -4239,7 +5211,7 @@
         <v>29071.23</v>
       </c>
       <c r="J56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K56">
         <v>14</v>
@@ -4259,8 +5231,23 @@
       <c r="P56">
         <v>0.2</v>
       </c>
+      <c r="Q56">
+        <v>3.19</v>
+      </c>
+      <c r="R56">
+        <v>67.98</v>
+      </c>
+      <c r="S56">
+        <v>-2.64</v>
+      </c>
       <c r="V56" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4268,22 +5255,25 @@
       <c r="Z56">
         <v>4.094345569610596</v>
       </c>
-      <c r="AA56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>688210</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>2.15</v>
@@ -4301,7 +5291,7 @@
         <v>31316.13</v>
       </c>
       <c r="J57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -4321,8 +5311,23 @@
       <c r="P57">
         <v>0.18</v>
       </c>
+      <c r="Q57">
+        <v>-3.84</v>
+      </c>
+      <c r="R57">
+        <v>35.25</v>
+      </c>
+      <c r="S57">
+        <v>3.04</v>
+      </c>
       <c r="V57" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4330,22 +5335,25 @@
       <c r="Z57">
         <v>1.183924078941345</v>
       </c>
-      <c r="AA57" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>688221</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>-3.31</v>
@@ -4363,7 +5371,7 @@
         <v>27399.42</v>
       </c>
       <c r="J58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K58">
         <v>15</v>
@@ -4383,8 +5391,23 @@
       <c r="P58">
         <v>-0.16</v>
       </c>
+      <c r="Q58">
+        <v>4.61</v>
+      </c>
+      <c r="R58">
+        <v>20.87</v>
+      </c>
+      <c r="S58">
+        <v>4.93</v>
+      </c>
       <c r="V58" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4392,22 +5415,25 @@
       <c r="Z58">
         <v>8.304483413696289</v>
       </c>
-      <c r="AA58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>688222</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>-3.4</v>
@@ -4425,7 +5451,7 @@
         <v>26994.61</v>
       </c>
       <c r="J59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K59">
         <v>6</v>
@@ -4445,8 +5471,23 @@
       <c r="P59">
         <v>-0.46</v>
       </c>
+      <c r="Q59">
+        <v>-0.31</v>
+      </c>
+      <c r="R59">
+        <v>23.25</v>
+      </c>
+      <c r="S59">
+        <v>-0.3</v>
+      </c>
       <c r="V59" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4454,22 +5495,25 @@
       <c r="Z59">
         <v>2.929025411605835</v>
       </c>
-      <c r="AA59" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>688313</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>2.03</v>
@@ -4487,7 +5531,7 @@
         <v>58358.53</v>
       </c>
       <c r="J60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K60">
         <v>28</v>
@@ -4507,8 +5551,23 @@
       <c r="P60">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="Q60">
+        <v>9.27</v>
+      </c>
+      <c r="R60">
+        <v>61.2</v>
+      </c>
+      <c r="S60">
+        <v>11.74</v>
+      </c>
       <c r="V60" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4516,22 +5575,25 @@
       <c r="Z60">
         <v>5.143678188323975</v>
       </c>
-      <c r="AA60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>688499</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61">
         <v>-0.32</v>
@@ -4549,7 +5611,7 @@
         <v>15020.04</v>
       </c>
       <c r="J61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K61">
         <v>29</v>
@@ -4569,8 +5631,23 @@
       <c r="P61">
         <v>-0.17</v>
       </c>
+      <c r="Q61">
+        <v>4.02</v>
+      </c>
+      <c r="R61">
+        <v>55.99</v>
+      </c>
+      <c r="S61">
+        <v>7.1</v>
+      </c>
       <c r="V61" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4578,22 +5655,25 @@
       <c r="Z61">
         <v>5.616062641143799</v>
       </c>
-      <c r="AA61" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>688660</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>-2.85</v>
@@ -4611,7 +5691,7 @@
         <v>41930.55</v>
       </c>
       <c r="J62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -4631,8 +5711,23 @@
       <c r="P62">
         <v>-0.22</v>
       </c>
+      <c r="Q62">
+        <v>17.47</v>
+      </c>
+      <c r="R62">
+        <v>15.3</v>
+      </c>
+      <c r="S62">
+        <v>18.15</v>
+      </c>
       <c r="V62" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
       </c>
       <c r="Y62">
         <v>1</v>
@@ -4640,22 +5735,25 @@
       <c r="Z62">
         <v>7.199587821960449</v>
       </c>
-      <c r="AA62" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>688668</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>0.47</v>
@@ -4673,7 +5771,7 @@
         <v>22477.65</v>
       </c>
       <c r="J63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K63">
         <v>7</v>
@@ -4693,8 +5791,23 @@
       <c r="P63">
         <v>0.06</v>
       </c>
+      <c r="Q63">
+        <v>5.15</v>
+      </c>
+      <c r="R63">
+        <v>81.78</v>
+      </c>
+      <c r="S63">
+        <v>3.36</v>
+      </c>
       <c r="V63" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -4702,8 +5815,11 @@
       <c r="Z63">
         <v>0.7250076532363892</v>
       </c>
-      <c r="AA63" t="s">
-        <v>132</v>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
